--- a/output/fit_clients/fit_round_485.xlsx
+++ b/output/fit_clients/fit_round_485.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1886619466.609428</v>
+        <v>2423486604.607735</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1077821621603256</v>
+        <v>0.1004146420363377</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04557640311857509</v>
+        <v>0.03413620498825325</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>943309713.7047474</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2119923097.649375</v>
+        <v>2379354103.177075</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1238644485725048</v>
+        <v>0.1586834038444192</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04466333406727643</v>
+        <v>0.04592370754199568</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1059961607.478271</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4105735170.513751</v>
+        <v>4577365428.790096</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1125849326857132</v>
+        <v>0.1513453565238434</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03458815297779614</v>
+        <v>0.02794560106163317</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>175</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2052867606.940068</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3499800734.611957</v>
+        <v>3171628770.921488</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07349050582861569</v>
+        <v>0.09760255256394726</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04793910532308798</v>
+        <v>0.04165410335694102</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>179</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1749900404.144855</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2747678533.964214</v>
+        <v>2197051926.408539</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1059243483477142</v>
+        <v>0.112935873223965</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04783152409110757</v>
+        <v>0.04487639434574298</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>93</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1373839215.683972</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2885074947.762211</v>
+        <v>2017889265.295063</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08776831857427282</v>
+        <v>0.0808085353582382</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04273860209432626</v>
+        <v>0.04446679323757445</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>152</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1442537449.829056</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3205420139.141841</v>
+        <v>2906584101.573369</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2066886765593177</v>
+        <v>0.2037735509427264</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03106759489824826</v>
+        <v>0.02178023684631693</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>155</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1602710148.10825</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1439542252.375554</v>
+        <v>2080163867.829551</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1965652751948214</v>
+        <v>0.1801328116666311</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02769611464046062</v>
+        <v>0.03336991687960868</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>719771230.5826603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4156174602.539059</v>
+        <v>3998350901.951896</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1359016605571169</v>
+        <v>0.1475957209412239</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05292599240200607</v>
+        <v>0.03962354199671648</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>204</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2078087335.274887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3458044527.663516</v>
+        <v>3270012457.96773</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1319130805108322</v>
+        <v>0.1538335794209914</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04231942521246594</v>
+        <v>0.03389467595573769</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>199</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1729022238.742806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2919047598.179944</v>
+        <v>2806189833.994596</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1233570299684172</v>
+        <v>0.1735894458895399</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0368557300422722</v>
+        <v>0.04584511915264937</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>164</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1459523809.715542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4481856258.053603</v>
+        <v>4278708662.258272</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08817256622905574</v>
+        <v>0.09459625338132199</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02176309441629673</v>
+        <v>0.02802893869531584</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>162</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2240928159.504241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3131839890.798292</v>
+        <v>2801443799.755847</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1705829023302912</v>
+        <v>0.1638174278095491</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03089493412095045</v>
+        <v>0.03791548644257032</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>155</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1565919970.313347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1328728410.127534</v>
+        <v>1423347275.607084</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1061944990229761</v>
+        <v>0.07957165120186283</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04632417102792983</v>
+        <v>0.03843497099987178</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>664364251.7496442</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2537984846.754218</v>
+        <v>2779488293.248848</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1060318283246986</v>
+        <v>0.09238147336137258</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04985814874217701</v>
+        <v>0.03581736689923348</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>100</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1268992450.816601</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3933583827.62903</v>
+        <v>4851443940.671332</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1747242583342282</v>
+        <v>0.1091348795651511</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03287715866456081</v>
+        <v>0.03394405898450664</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>142</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1966791951.737916</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2508604657.752978</v>
+        <v>2479945961.807675</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1125812669182351</v>
+        <v>0.1230493362295699</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02225305476356221</v>
+        <v>0.02740495609734043</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>159</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1254302394.740922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1320054826.727552</v>
+        <v>1236287449.377939</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1282552967481373</v>
+        <v>0.1866794147362609</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02649187981823154</v>
+        <v>0.02527436756239642</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>660027520.5312977</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2077121306.66379</v>
+        <v>2462418454.284233</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1450394475832336</v>
+        <v>0.1479927624327983</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02688866381627222</v>
+        <v>0.02500093175820419</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1038560671.495274</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2069179902.042632</v>
+        <v>2067483813.511482</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06529672395564792</v>
+        <v>0.0656468096676221</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03529316688268636</v>
+        <v>0.03359186967569262</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1034589980.394282</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2773342677.665941</v>
+        <v>3993874410.601672</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1014815674071657</v>
+        <v>0.1286464758329632</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04318928403554114</v>
+        <v>0.04509598109574978</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1386671413.958768</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1257742834.857589</v>
+        <v>1256711434.386272</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1174764870814399</v>
+        <v>0.1818280090258401</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04367810445677712</v>
+        <v>0.05463308552583624</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>628871444.2046558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4017161559.19818</v>
+        <v>3712011966.758397</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1250781804487162</v>
+        <v>0.1472437301468495</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03718211445272739</v>
+        <v>0.03335499890121247</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>141</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2008580746.455847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>983856446.7831407</v>
+        <v>1011657279.088205</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1044873016535511</v>
+        <v>0.1147043893202346</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02680924885020776</v>
+        <v>0.03049511540570326</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>491928291.1151552</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1218041292.40917</v>
+        <v>1048205571.722678</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1101191212533481</v>
+        <v>0.1225882830139665</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03625895228569655</v>
+        <v>0.03144558213520488</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>609020671.6483133</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3779292452.40272</v>
+        <v>4681770428.090034</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1447738460150132</v>
+        <v>0.1220148918678693</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02642851453554393</v>
+        <v>0.02247218616339888</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1889646247.337726</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3872533789.274147</v>
+        <v>3139605707.000531</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09426575094510461</v>
+        <v>0.1042887094063894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04648800630122327</v>
+        <v>0.03791358924789948</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1936266981.656598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5173624678.407156</v>
+        <v>4419032021.708225</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1396215803553189</v>
+        <v>0.09895129681455181</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02964937280610694</v>
+        <v>0.04172290289158766</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>214</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2586812274.762678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1971861783.647704</v>
+        <v>1995861785.381768</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1356795384000231</v>
+        <v>0.1360943143205358</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02521880571002178</v>
+        <v>0.0256836306582905</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>985930926.1006622</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1368520225.604136</v>
+        <v>1143215875.593444</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08960244771162788</v>
+        <v>0.08235001183454409</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03549482647419857</v>
+        <v>0.03568860818657377</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>684260024.6139539</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1306577476.147477</v>
+        <v>1546138127.239185</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09673501618686975</v>
+        <v>0.1101476724950194</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03152317714584878</v>
+        <v>0.03124124810195573</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>653288766.3849217</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2361203028.200098</v>
+        <v>2204439845.08135</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1421709902603521</v>
+        <v>0.1274798366542333</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03828770035749061</v>
+        <v>0.03755858883549351</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>151</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1180601564.141449</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>964558904.3607655</v>
+        <v>1058064066.825621</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1184636328150184</v>
+        <v>0.07676718018523573</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02807019805791465</v>
+        <v>0.0280677110627574</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>482279495.834437</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1059042223.584127</v>
+        <v>1216158457.66776</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09336341677731239</v>
+        <v>0.0847028582617219</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03721414925974655</v>
+        <v>0.03255011638721893</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>529521117.4372388</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2960605914.543649</v>
+        <v>2358694140.947423</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1766072812053605</v>
+        <v>0.1306848080601879</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02637066559177009</v>
+        <v>0.02290364133337965</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>122</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1480302942.382316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2873953143.744318</v>
+        <v>2817027622.157306</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1074646513683856</v>
+        <v>0.1095556416727815</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02697269120278118</v>
+        <v>0.0413924954198619</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>130</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1436976719.384338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1357401023.50939</v>
+        <v>2057067749.897142</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07632664898808181</v>
+        <v>0.1146587513817361</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03051082393137059</v>
+        <v>0.03440191001474813</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>678700581.1856773</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1350815280.809951</v>
+        <v>2048067571.076603</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1747450554206967</v>
+        <v>0.1296807669361377</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02661645754103741</v>
+        <v>0.03079502843963801</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>675407733.5141668</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1472390595.028993</v>
+        <v>1541290015.572894</v>
       </c>
       <c r="F40" t="n">
-        <v>0.133129822941033</v>
+        <v>0.1398701676494134</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04994705002938619</v>
+        <v>0.04349267507925152</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>736195270.6426203</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2238678291.16643</v>
+        <v>1949489330.942883</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1031506964068237</v>
+        <v>0.1614811756712189</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04715736132336035</v>
+        <v>0.02983315693224499</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>118</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1119339196.432599</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3885022433.056648</v>
+        <v>3840554408.97289</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08577298990346613</v>
+        <v>0.1156999054991612</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03261592053151562</v>
+        <v>0.04439080405923922</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>157</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1942511237.931509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2218210673.101417</v>
+        <v>2889109069.532904</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2041049785096388</v>
+        <v>0.2030604365790838</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02369284201013926</v>
+        <v>0.0240358093144819</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>168</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1109105413.577043</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1873667202.374622</v>
+        <v>1463317338.225482</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0632486957109485</v>
+        <v>0.079870279803094</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02807798803425722</v>
+        <v>0.03335351866069601</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>936833682.3312197</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2104806683.844613</v>
+        <v>2148882808.263086</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1784124104676336</v>
+        <v>0.194729677437512</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05633259434559873</v>
+        <v>0.05103326354612136</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1052403343.413464</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5673332442.525354</v>
+        <v>5054095197.080996</v>
       </c>
       <c r="F46" t="n">
-        <v>0.173447968367161</v>
+        <v>0.1770441782603252</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04619470090916572</v>
+        <v>0.04491906578184572</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>172</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2836666286.619809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4146536501.074332</v>
+        <v>3673856461.812316</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1695326449825891</v>
+        <v>0.1731081004402561</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05887359232764491</v>
+        <v>0.04523106326408739</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>131</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2073268257.988246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4315461793.134679</v>
+        <v>4259199309.958372</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09530988860347374</v>
+        <v>0.07305537888617637</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03769725637317019</v>
+        <v>0.03554832616969785</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>159</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2157730912.625747</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1487851930.119916</v>
+        <v>1745936851.7756</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1266486436890082</v>
+        <v>0.1321942140426851</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02758717997929335</v>
+        <v>0.04141606649174215</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>743925998.9803834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3711480193.132027</v>
+        <v>4188261478.518425</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1680330210801478</v>
+        <v>0.1648191326892763</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04833722439722331</v>
+        <v>0.04808269082483514</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>166</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1855740105.789055</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1132223602.047543</v>
+        <v>1049530830.107916</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1838040536838237</v>
+        <v>0.1852949081409483</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05124297289581149</v>
+        <v>0.03512634970637273</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>566111863.5731366</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5113232029.86199</v>
+        <v>5226022977.284266</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1016260168238808</v>
+        <v>0.1206197744789818</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04876905268574236</v>
+        <v>0.05287168215432191</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>199</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2556616005.921653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3229992806.759661</v>
+        <v>2492675082.133156</v>
       </c>
       <c r="F53" t="n">
-        <v>0.131426776047582</v>
+        <v>0.1548515099979146</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0326920905580035</v>
+        <v>0.0242145977389354</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>138</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1614996419.919487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3636154964.382303</v>
+        <v>3225144750.870641</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1102755290390516</v>
+        <v>0.154599699195677</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03588803303895512</v>
+        <v>0.04252060428218785</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>159</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1818077517.712842</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3393902469.77422</v>
+        <v>4840018083.653518</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1717406224601397</v>
+        <v>0.2188230931471493</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02049636855515717</v>
+        <v>0.02718793232002297</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1696951183.071923</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1603978262.657047</v>
+        <v>1573351873.999946</v>
       </c>
       <c r="F56" t="n">
-        <v>0.113745215178093</v>
+        <v>0.1334817637555058</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05240786563044347</v>
+        <v>0.03928975208877695</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>801989158.2177747</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4192898082.708086</v>
+        <v>3809139364.197218</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1570915927532807</v>
+        <v>0.1361802564350754</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01963011773639167</v>
+        <v>0.02707679041096616</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>154</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2096449145.939109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1250733019.842082</v>
+        <v>1368608294.463874</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1822296374737024</v>
+        <v>0.1466156600053217</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03733536240225895</v>
+        <v>0.03329702574984457</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>625366563.8149529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4002381286.088486</v>
+        <v>4175181865.899735</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1154478999271588</v>
+        <v>0.09652295855854093</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03249680597101644</v>
+        <v>0.04326586756357866</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2001190618.90689</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3583093615.526145</v>
+        <v>3268623413.551573</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1959648841268105</v>
+        <v>0.1542844992328056</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03336986833234302</v>
+        <v>0.02368034424461496</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>155</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1791546939.298054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3099888298.189833</v>
+        <v>2153686894.364477</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1556982924058366</v>
+        <v>0.1515433884985677</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02915002426617249</v>
+        <v>0.02327380818411413</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>167</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1549944120.164278</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1397417841.01872</v>
+        <v>1570817895.891277</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1880599320895371</v>
+        <v>0.1202778357332871</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0463949902274264</v>
+        <v>0.04619852266663278</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>698708888.2220147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5196836827.734171</v>
+        <v>4792163347.884026</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07993724400588141</v>
+        <v>0.07239890826195226</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03913439044064473</v>
+        <v>0.03046773552069565</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>139</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2598418422.898819</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4762578900.916184</v>
+        <v>4438125280.300256</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1768097012954142</v>
+        <v>0.1912128119438024</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03372251365596018</v>
+        <v>0.030885616516135</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>151</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2381289539.978257</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4379328639.32161</v>
+        <v>5918866885.137527</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1468159979862575</v>
+        <v>0.1070149208562687</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03225557974011607</v>
+        <v>0.02176879218206136</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>173</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2189664315.622187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3632633380.925814</v>
+        <v>4294389255.885564</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1626159690755604</v>
+        <v>0.1474976281670976</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04694095372629106</v>
+        <v>0.03466161321091277</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>141</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1816316644.428101</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2949128197.771802</v>
+        <v>3226912692.552717</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09990325243033056</v>
+        <v>0.09329022943103331</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04299496599221454</v>
+        <v>0.04861124756321913</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>156</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1474564121.498939</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3847263354.881122</v>
+        <v>6010892525.912158</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1281694822791004</v>
+        <v>0.1167702699598024</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05036524560736277</v>
+        <v>0.05076757040326579</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>156</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1923631663.990039</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1523739478.228377</v>
+        <v>2033316834.198536</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1428500238285714</v>
+        <v>0.1213914460943978</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03831016207053926</v>
+        <v>0.05271559375574941</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>761869682.4991679</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2358945506.464956</v>
+        <v>3643611052.033674</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09732978047429666</v>
+        <v>0.1012372774943586</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04245079799667616</v>
+        <v>0.0362312353180813</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>139</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1179472688.485177</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5380375504.205341</v>
+        <v>4403718809.931253</v>
       </c>
       <c r="F71" t="n">
-        <v>0.167648354205794</v>
+        <v>0.184595505123802</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03255697180047207</v>
+        <v>0.03324898079694587</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>176</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2690187886.265995</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1418581481.607216</v>
+        <v>1937516518.69086</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08372950017644591</v>
+        <v>0.1001094894042269</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05208098198050602</v>
+        <v>0.03294154071085992</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>709290780.9507725</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3269869514.307932</v>
+        <v>2491148267.732946</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1075573641376705</v>
+        <v>0.09583433245907814</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04839010535321155</v>
+        <v>0.04275943808282665</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>183</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1634934728.444292</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2420967823.399198</v>
+        <v>2925904967.548641</v>
       </c>
       <c r="F74" t="n">
-        <v>0.146547700386858</v>
+        <v>0.1287267679352429</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02674621800429027</v>
+        <v>0.02186158250887741</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>165</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1210484027.177685</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2231514088.397013</v>
+        <v>2481180566.943515</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1096538966586381</v>
+        <v>0.1149105596628442</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02387592638001237</v>
+        <v>0.03652864577239795</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1115756986.67226</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5208275875.844014</v>
+        <v>4034082867.247005</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1152297780732688</v>
+        <v>0.0797882300948481</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03051497717567488</v>
+        <v>0.02990208068709604</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2604137973.32651</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2229694606.12532</v>
+        <v>1986540781.539275</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1777337562324929</v>
+        <v>0.1792904996695636</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01980325884100327</v>
+        <v>0.0299442603768697</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1114847398.496278</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4268339055.044281</v>
+        <v>4482848764.628334</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1359213503564658</v>
+        <v>0.1141623982387529</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04507181468671814</v>
+        <v>0.03761480167277734</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>168</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2134169474.052079</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1640514379.603527</v>
+        <v>1198594779.785306</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1252899349269382</v>
+        <v>0.1326239216029103</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04004771952422853</v>
+        <v>0.02801491676429081</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>820257248.6211838</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4599931740.540998</v>
+        <v>4054014715.733572</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0844959429714732</v>
+        <v>0.1019503655503476</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03762434346154513</v>
+        <v>0.03723478554103962</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2299965899.601278</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3362363253.114873</v>
+        <v>3567732345.308122</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1309584598699869</v>
+        <v>0.1050993854100574</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0316519737411528</v>
+        <v>0.02799741511089156</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1681181566.123883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5492828407.615812</v>
+        <v>5562845483.159838</v>
       </c>
       <c r="F82" t="n">
-        <v>0.20318092938819</v>
+        <v>0.141985678097493</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02197371012194776</v>
+        <v>0.02228100665178563</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>170</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2746414160.288201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1545307713.681034</v>
+        <v>2383713232.23685</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1456672888004328</v>
+        <v>0.1541833808980745</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0337132253290704</v>
+        <v>0.0336417100507035</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>772653785.6102269</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1604519634.170513</v>
+        <v>1624411724.213959</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07716212052003205</v>
+        <v>0.09448393761976211</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03287064909200776</v>
+        <v>0.05161112323655277</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>802259880.0021684</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2839024565.23119</v>
+        <v>3611718313.775944</v>
       </c>
       <c r="F85" t="n">
-        <v>0.137799790922054</v>
+        <v>0.1343312622145389</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04887766910290312</v>
+        <v>0.03775633251702248</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>182</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1419512325.005493</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1979268772.748548</v>
+        <v>1731529898.234973</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1457713921196974</v>
+        <v>0.1153453687890359</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02550203206126606</v>
+        <v>0.0240098381521678</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>989634411.1461288</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1183138483.182843</v>
+        <v>1032125824.622465</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1484884193684625</v>
+        <v>0.1174781668746233</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03596492315185296</v>
+        <v>0.0398752682566975</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>591569292.8944438</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3221440687.040191</v>
+        <v>2562298401.344386</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1169625744767264</v>
+        <v>0.1645386733398171</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02650201946678232</v>
+        <v>0.02633517409901478</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>192</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1610720395.885741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2410072069.091331</v>
+        <v>3141067491.379663</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1204296644350432</v>
+        <v>0.1532210168378057</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02922905890334208</v>
+        <v>0.03371773621061488</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>164</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1205036115.913967</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1645260085.707932</v>
+        <v>2015401264.248205</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0960423182452169</v>
+        <v>0.08468179785700276</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04733702654254955</v>
+        <v>0.04896745571992924</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>822630048.164325</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1472848095.343903</v>
+        <v>1915913414.458407</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1234350634620866</v>
+        <v>0.1293786057889512</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04067763711503306</v>
+        <v>0.04972796366947416</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>736424090.2561648</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2818767952.644352</v>
+        <v>2158910006.965472</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09926840944811235</v>
+        <v>0.06881871490778034</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03313883863732627</v>
+        <v>0.04505520205067003</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>131</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1409383984.38523</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4414560130.690005</v>
+        <v>3219912550.185243</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1142163126065982</v>
+        <v>0.1056563440216966</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03473108896029004</v>
+        <v>0.04944734441347991</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>148</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2207280039.192693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1571315086.530051</v>
+        <v>2077749701.747221</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1259742836488881</v>
+        <v>0.1242296621736355</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04045581290918353</v>
+        <v>0.03384808509010648</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>785657485.8278878</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3263959500.277772</v>
+        <v>2293349805.642806</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09170901332910965</v>
+        <v>0.08841667878205811</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05308857623466208</v>
+        <v>0.05293548837217869</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1631979730.729622</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1977704091.944824</v>
+        <v>1981076779.420415</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1241320940295782</v>
+        <v>0.09420988806927337</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03952439394089172</v>
+        <v>0.03494640995240095</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>988852035.3550757</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5245766273.851549</v>
+        <v>3541401563.35347</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1254331545436524</v>
+        <v>0.1442893247212027</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02203065438820926</v>
+        <v>0.02127498767001783</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>156</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2622883293.505607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3861492052.017927</v>
+        <v>3286722475.088036</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09634397771846535</v>
+        <v>0.1249417587274375</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02642669803597375</v>
+        <v>0.02493893295120452</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>130</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1930746069.149999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2073948767.640086</v>
+        <v>2735520271.499678</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09671198047400764</v>
+        <v>0.1180656503320699</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0288889470373489</v>
+        <v>0.03183442291297563</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>155</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1036974302.684737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4387966783.341626</v>
+        <v>3420859246.374313</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1673334835980191</v>
+        <v>0.1764567208339188</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02310427750045596</v>
+        <v>0.0222801832232575</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>147</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2193983493.34892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2184096203.250485</v>
+        <v>2953383026.491431</v>
       </c>
       <c r="F101" t="n">
-        <v>0.165202102958091</v>
+        <v>0.1445206261393736</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03766788638424979</v>
+        <v>0.04198219037834477</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>197</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1092048082.925251</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_485.xlsx
+++ b/output/fit_clients/fit_round_485.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2423486604.607735</v>
+        <v>1592482504.725453</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1004146420363377</v>
+        <v>0.09759747928791666</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03413620498825325</v>
+        <v>0.03535620122052475</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2379354103.177075</v>
+        <v>1723577560.932496</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1586834038444192</v>
+        <v>0.1316288201788309</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04592370754199568</v>
+        <v>0.04608906611135248</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4577365428.790096</v>
+        <v>3834755509.620216</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1513453565238434</v>
+        <v>0.1554989928538707</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02794560106163317</v>
+        <v>0.02747006955882708</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3171628770.921488</v>
+        <v>2979331244.786411</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09760255256394726</v>
+        <v>0.09791626301430362</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04165410335694102</v>
+        <v>0.04847419032110395</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2197051926.408539</v>
+        <v>2769389551.286188</v>
       </c>
       <c r="F6" t="n">
-        <v>0.112935873223965</v>
+        <v>0.1192468169062706</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04487639434574298</v>
+        <v>0.05072724640515572</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2017889265.295063</v>
+        <v>2823262375.202121</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0808085353582382</v>
+        <v>0.09263720505567734</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04446679323757445</v>
+        <v>0.03935376118534328</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2906584101.573369</v>
+        <v>3209692055.65541</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2037735509427264</v>
+        <v>0.1512925587853885</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02178023684631693</v>
+        <v>0.02187561971945179</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2080163867.829551</v>
+        <v>1695450887.254282</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1801328116666311</v>
+        <v>0.1615366837283086</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03336991687960868</v>
+        <v>0.0299528795880357</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3998350901.951896</v>
+        <v>5408623271.72853</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1475957209412239</v>
+        <v>0.1389893604665318</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03962354199671648</v>
+        <v>0.03650035856619604</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3270012457.96773</v>
+        <v>3927799102.125195</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1538335794209914</v>
+        <v>0.1728409896743889</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03389467595573769</v>
+        <v>0.04442476013541782</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2806189833.994596</v>
+        <v>2353518494.107973</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1735894458895399</v>
+        <v>0.1202854350063945</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04584511915264937</v>
+        <v>0.05273495044375211</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4278708662.258272</v>
+        <v>5303756892.983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09459625338132199</v>
+        <v>0.08065095091311604</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02802893869531584</v>
+        <v>0.03032279324409716</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2801443799.755847</v>
+        <v>2709337836.894312</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1638174278095491</v>
+        <v>0.162444550270095</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03791548644257032</v>
+        <v>0.03836969549292684</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1423347275.607084</v>
+        <v>1334203955.548412</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07957165120186283</v>
+        <v>0.0807761882235136</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03843497099987178</v>
+        <v>0.03406876616343632</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2779488293.248848</v>
+        <v>2627570515.350143</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09238147336137258</v>
+        <v>0.08442539972030164</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03581736689923348</v>
+        <v>0.0317084095851838</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4851443940.671332</v>
+        <v>4077575821.574904</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1091348795651511</v>
+        <v>0.1061386451563332</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03394405898450664</v>
+        <v>0.04640733132937903</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2479945961.807675</v>
+        <v>2536285233.917333</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1230493362295699</v>
+        <v>0.1683751321809906</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02740495609734043</v>
+        <v>0.02235818970131582</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1236287449.377939</v>
+        <v>1137904433.079529</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1866794147362609</v>
+        <v>0.1807030986910616</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02527436756239642</v>
+        <v>0.0260085112569865</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2462418454.284233</v>
+        <v>2400156415.905721</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1479927624327983</v>
+        <v>0.1130208150327504</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02500093175820419</v>
+        <v>0.02215751737476248</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2067483813.511482</v>
+        <v>2518074962.964051</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0656468096676221</v>
+        <v>0.0885251484639541</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03359186967569262</v>
+        <v>0.03721868196168329</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3993874410.601672</v>
+        <v>2820279394.240394</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1286464758329632</v>
+        <v>0.1318622402784566</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04509598109574978</v>
+        <v>0.03861727233448542</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1256711434.386272</v>
+        <v>1537903421.897337</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1818280090258401</v>
+        <v>0.170469476822444</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05463308552583624</v>
+        <v>0.0445412408539815</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3712011966.758397</v>
+        <v>3854622765.987377</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1472437301468495</v>
+        <v>0.09292380175388915</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03335499890121247</v>
+        <v>0.027348434976227</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1011657279.088205</v>
+        <v>1011892696.205293</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1147043893202346</v>
+        <v>0.07437064565196759</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03049511540570326</v>
+        <v>0.0301028123831774</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1048205571.722678</v>
+        <v>982546358.2704546</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1225882830139665</v>
+        <v>0.1067686556130276</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03144558213520488</v>
+        <v>0.02689015998809395</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4681770428.090034</v>
+        <v>3813213697.680133</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1220148918678693</v>
+        <v>0.09932691550036285</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02247218616339888</v>
+        <v>0.01889908616708638</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3139605707.000531</v>
+        <v>2678395989.95788</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1042887094063894</v>
+        <v>0.1300687015211372</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03791358924789948</v>
+        <v>0.04937533443498181</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4419032021.708225</v>
+        <v>3775865652.656912</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09895129681455181</v>
+        <v>0.1343784295429951</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04172290289158766</v>
+        <v>0.02914754287618126</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1995861785.381768</v>
+        <v>1736509121.793837</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1360943143205358</v>
+        <v>0.1223379742621135</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0256836306582905</v>
+        <v>0.03849296142010149</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1143215875.593444</v>
+        <v>1180370719.544297</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08235001183454409</v>
+        <v>0.07331394472897475</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03568860818657377</v>
+        <v>0.04451563967179901</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1546138127.239185</v>
+        <v>1640184151.424022</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1101476724950194</v>
+        <v>0.09901126840269135</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03124124810195573</v>
+        <v>0.02880408765518876</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2204439845.08135</v>
+        <v>2776350626.459415</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1274798366542333</v>
+        <v>0.2052380748816239</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03755858883549351</v>
+        <v>0.04566353150356951</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1058064066.825621</v>
+        <v>1421637807.424456</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07676718018523573</v>
+        <v>0.1194549022112151</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0280677110627574</v>
+        <v>0.01953638199629613</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1216158457.66776</v>
+        <v>1351077830.718217</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0847028582617219</v>
+        <v>0.08274480131998857</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03255011638721893</v>
+        <v>0.02876738922697819</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2358694140.947423</v>
+        <v>3159886519.880862</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1306848080601879</v>
+        <v>0.1240776748229284</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02290364133337965</v>
+        <v>0.02179136838429663</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2817027622.157306</v>
+        <v>2268244487.07179</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1095556416727815</v>
+        <v>0.08365950278185724</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0413924954198619</v>
+        <v>0.02669682084400804</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2057067749.897142</v>
+        <v>1419918163.937247</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1146587513817361</v>
+        <v>0.1019987107476611</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03440191001474813</v>
+        <v>0.03789073994217981</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2048067571.076603</v>
+        <v>1434030194.238117</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1296807669361377</v>
+        <v>0.1540059853168386</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03079502843963801</v>
+        <v>0.02534963922228466</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1541290015.572894</v>
+        <v>1426571500.502533</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1398701676494134</v>
+        <v>0.1523611732578078</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04349267507925152</v>
+        <v>0.05705180189337119</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1949489330.942883</v>
+        <v>2412142115.070587</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1614811756712189</v>
+        <v>0.1058074267834453</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02983315693224499</v>
+        <v>0.03007762657072818</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3840554408.97289</v>
+        <v>3212123088.629709</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1156999054991612</v>
+        <v>0.08335589131800478</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04439080405923922</v>
+        <v>0.04031478331925023</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2889109069.532904</v>
+        <v>2670068358.764932</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2030604365790838</v>
+        <v>0.1424384419719825</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0240358093144819</v>
+        <v>0.02436893431646074</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1463317338.225482</v>
+        <v>2291049626.239363</v>
       </c>
       <c r="F44" t="n">
-        <v>0.079870279803094</v>
+        <v>0.0908055600441882</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03335351866069601</v>
+        <v>0.03085946754268746</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2148882808.263086</v>
+        <v>2199971899.980851</v>
       </c>
       <c r="F45" t="n">
-        <v>0.194729677437512</v>
+        <v>0.1898320129121869</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05103326354612136</v>
+        <v>0.05488574866388954</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5054095197.080996</v>
+        <v>3852406297.695387</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1770441782603252</v>
+        <v>0.1293521827816891</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04491906578184572</v>
+        <v>0.0577729765665849</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3673856461.812316</v>
+        <v>3367420129.279828</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1731081004402561</v>
+        <v>0.1777265436145249</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04523106326408739</v>
+        <v>0.05917075109231566</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4259199309.958372</v>
+        <v>2843888690.08626</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07305537888617637</v>
+        <v>0.07823100149995839</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03554832616969785</v>
+        <v>0.03467719084835058</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1745936851.7756</v>
+        <v>1844593745.598998</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1321942140426851</v>
+        <v>0.160774750409076</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04141606649174215</v>
+        <v>0.03073248506023874</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4188261478.518425</v>
+        <v>3393390383.792508</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1648191326892763</v>
+        <v>0.1578631224508937</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04808269082483514</v>
+        <v>0.04647302706451821</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1049530830.107916</v>
+        <v>1020114523.291781</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1852949081409483</v>
+        <v>0.1481716737010742</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03512634970637273</v>
+        <v>0.03360790479526117</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5226022977.284266</v>
+        <v>3737558936.183124</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1206197744789818</v>
+        <v>0.131020928647878</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05287168215432191</v>
+        <v>0.03897401782713866</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2492675082.133156</v>
+        <v>2703067631.263589</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1548515099979146</v>
+        <v>0.1330049653888704</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0242145977389354</v>
+        <v>0.03336447878545384</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3225144750.870641</v>
+        <v>3333334687.613904</v>
       </c>
       <c r="F54" t="n">
-        <v>0.154599699195677</v>
+        <v>0.1605072707263283</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04252060428218785</v>
+        <v>0.04216989293410341</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4840018083.653518</v>
+        <v>3763011964.208262</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2188230931471493</v>
+        <v>0.2193881689092808</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02718793232002297</v>
+        <v>0.02889673800558576</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1573351873.999946</v>
+        <v>1672283148.209862</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1334817637555058</v>
+        <v>0.1577422667797561</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03928975208877695</v>
+        <v>0.05500123174236116</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3809139364.197218</v>
+        <v>3481145165.037042</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1361802564350754</v>
+        <v>0.1251463520844928</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02707679041096616</v>
+        <v>0.01837236464221245</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1368608294.463874</v>
+        <v>1633407763.573501</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1466156600053217</v>
+        <v>0.1511034038622129</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03329702574984457</v>
+        <v>0.03927355899355272</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4175181865.899735</v>
+        <v>3975729309.727356</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09652295855854093</v>
+        <v>0.0790640942295098</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04326586756357866</v>
+        <v>0.0441307045674948</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3268623413.551573</v>
+        <v>3293506547.457142</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1542844992328056</v>
+        <v>0.1443764140057501</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02368034424461496</v>
+        <v>0.03010958762326438</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2153686894.364477</v>
+        <v>2358230695.94004</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1515433884985677</v>
+        <v>0.176813628107659</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02327380818411413</v>
+        <v>0.02304003666343807</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1570817895.891277</v>
+        <v>2044791081.317448</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1202778357332871</v>
+        <v>0.1827275287522346</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04619852266663278</v>
+        <v>0.03444014615896324</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4792163347.884026</v>
+        <v>3450467435.987467</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07239890826195226</v>
+        <v>0.07089217159129689</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03046773552069565</v>
+        <v>0.03906486974270554</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4438125280.300256</v>
+        <v>3986405312.38794</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1912128119438024</v>
+        <v>0.1210882207642714</v>
       </c>
       <c r="G64" t="n">
-        <v>0.030885616516135</v>
+        <v>0.0261675803929125</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5918866885.137527</v>
+        <v>4949347455.630716</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1070149208562687</v>
+        <v>0.1724343710066618</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02176879218206136</v>
+        <v>0.02693000665405883</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4294389255.885564</v>
+        <v>4587867128.629341</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1474976281670976</v>
+        <v>0.1532097917163776</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03466161321091277</v>
+        <v>0.04856980428391548</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3226912692.552717</v>
+        <v>3306645583.920395</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09329022943103331</v>
+        <v>0.09354644445252108</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04861124756321913</v>
+        <v>0.05094863374069109</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6010892525.912158</v>
+        <v>4051113003.702355</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1167702699598024</v>
+        <v>0.1270723904885031</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05076757040326579</v>
+        <v>0.03444816744897337</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2033316834.198536</v>
+        <v>1961511470.92144</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1213914460943978</v>
+        <v>0.1481569729017359</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05271559375574941</v>
+        <v>0.04340234112607099</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3643611052.033674</v>
+        <v>3065154685.088318</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1012372774943586</v>
+        <v>0.06427959044577784</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0362312353180813</v>
+        <v>0.03304610651959442</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4403718809.931253</v>
+        <v>4594701504.250018</v>
       </c>
       <c r="F71" t="n">
-        <v>0.184595505123802</v>
+        <v>0.1714134005711118</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03324898079694587</v>
+        <v>0.03058010585133366</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1937516518.69086</v>
+        <v>2042484016.49665</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1001094894042269</v>
+        <v>0.09265160334093851</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03294154071085992</v>
+        <v>0.04085399047044727</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2491148267.732946</v>
+        <v>3191014505.663162</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09583433245907814</v>
+        <v>0.1058061958276018</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04275943808282665</v>
+        <v>0.03275232955456632</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2925904967.548641</v>
+        <v>3261641622.268835</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1287267679352429</v>
+        <v>0.1157865350139919</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02186158250887741</v>
+        <v>0.0316947904029852</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2481180566.943515</v>
+        <v>2189544355.564365</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1149105596628442</v>
+        <v>0.1257762056302915</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03652864577239795</v>
+        <v>0.0265365601947632</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4034082867.247005</v>
+        <v>4987904322.360794</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0797882300948481</v>
+        <v>0.1148235815535309</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02990208068709604</v>
+        <v>0.03151632911540005</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1986540781.539275</v>
+        <v>1889066794.782774</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1792904996695636</v>
+        <v>0.1644316484148201</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0299442603768697</v>
+        <v>0.02720897962510286</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4482848764.628334</v>
+        <v>3244020196.117688</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1141623982387529</v>
+        <v>0.1041336632257271</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03761480167277734</v>
+        <v>0.05724953790790337</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1198594779.785306</v>
+        <v>1775440123.704002</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1326239216029103</v>
+        <v>0.15123442173731</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02801491676429081</v>
+        <v>0.03482509637867243</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4054014715.733572</v>
+        <v>4830057424.446065</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1019503655503476</v>
+        <v>0.1092940712556764</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03723478554103962</v>
+        <v>0.02703897832576351</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3567732345.308122</v>
+        <v>4046910564.216852</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1050993854100574</v>
+        <v>0.1247137105920468</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02799741511089156</v>
+        <v>0.02761594246074084</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5562845483.159838</v>
+        <v>3423561075.349969</v>
       </c>
       <c r="F82" t="n">
-        <v>0.141985678097493</v>
+        <v>0.1505088930165295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02228100665178563</v>
+        <v>0.02911440476592811</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2383713232.23685</v>
+        <v>1999361333.741624</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1541833808980745</v>
+        <v>0.1472600135821243</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0336417100507035</v>
+        <v>0.04404572533431219</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1624411724.213959</v>
+        <v>2545575110.711317</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09448393761976211</v>
+        <v>0.07629513137440437</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05161112323655277</v>
+        <v>0.05033474316727875</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3611718313.775944</v>
+        <v>3531726030.233824</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1343312622145389</v>
+        <v>0.1113480148160774</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03775633251702248</v>
+        <v>0.04255853196635119</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1731529898.234973</v>
+        <v>1725168507.755165</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1153453687890359</v>
+        <v>0.1470884367505872</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0240098381521678</v>
+        <v>0.02650452869909124</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1032125824.622465</v>
+        <v>1363997377.277845</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1174781668746233</v>
+        <v>0.1796702246439663</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0398752682566975</v>
+        <v>0.03743860540631866</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2562298401.344386</v>
+        <v>2873425745.700254</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1645386733398171</v>
+        <v>0.1474286770456087</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02633517409901478</v>
+        <v>0.03914110434628794</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3141067491.379663</v>
+        <v>2672459851.006665</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1532210168378057</v>
+        <v>0.1196669180676646</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03371773621061488</v>
+        <v>0.02622529993865693</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2015401264.248205</v>
+        <v>1514759492.600963</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08468179785700276</v>
+        <v>0.09134959025621806</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04896745571992924</v>
+        <v>0.03796170846534353</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1915913414.458407</v>
+        <v>1896066863.962479</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1293786057889512</v>
+        <v>0.1735019657124023</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04972796366947416</v>
+        <v>0.05578873583597082</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2158910006.965472</v>
+        <v>2976583414.014826</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06881871490778034</v>
+        <v>0.08637648549772957</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04505520205067003</v>
+        <v>0.0454658681465062</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3219912550.185243</v>
+        <v>3750532274.546988</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1056563440216966</v>
+        <v>0.121496972404422</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04944734441347991</v>
+        <v>0.03939202499607333</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2077749701.747221</v>
+        <v>2414643081.565245</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1242296621736355</v>
+        <v>0.1189174800718181</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03384808509010648</v>
+        <v>0.03097351307730151</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2293349805.642806</v>
+        <v>2339298290.443517</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08841667878205811</v>
+        <v>0.09503112875037434</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05293548837217869</v>
+        <v>0.05167797951094157</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1981076779.420415</v>
+        <v>1793035375.245408</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09420988806927337</v>
+        <v>0.1275834568946656</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03494640995240095</v>
+        <v>0.04196625566583879</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3541401563.35347</v>
+        <v>4453967856.367085</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1442893247212027</v>
+        <v>0.1285533745607048</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02127498767001783</v>
+        <v>0.02361732552551787</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3286722475.088036</v>
+        <v>2470765217.727141</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1249417587274375</v>
+        <v>0.07948664446925797</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02493893295120452</v>
+        <v>0.02803112457700195</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2735520271.499678</v>
+        <v>2886844202.188557</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1180656503320699</v>
+        <v>0.121163290834609</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03183442291297563</v>
+        <v>0.02895007326972378</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3420859246.374313</v>
+        <v>3651807915.935695</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1764567208339188</v>
+        <v>0.1757201066951164</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0222801832232575</v>
+        <v>0.02188685696698174</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2953383026.491431</v>
+        <v>2765866339.549018</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1445206261393736</v>
+        <v>0.1919312490924547</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04198219037834477</v>
+        <v>0.0527574803152168</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_485.xlsx
+++ b/output/fit_clients/fit_round_485.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1592482504.725453</v>
+        <v>1553807257.824678</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09759747928791666</v>
+        <v>0.1004981957075097</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03535620122052475</v>
+        <v>0.03893918953416274</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1723577560.932496</v>
+        <v>1773573942.258015</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1316288201788309</v>
+        <v>0.1656905489050363</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04608906611135248</v>
+        <v>0.0449111428119481</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3834755509.620216</v>
+        <v>4675306389.459393</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1554989928538707</v>
+        <v>0.134284285133641</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02747006955882708</v>
+        <v>0.03667593675374743</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>244</v>
+      </c>
+      <c r="J4" t="n">
+        <v>485</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2979331244.786411</v>
+        <v>3882234898.359508</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09791626301430362</v>
+        <v>0.09540550332088645</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04847419032110395</v>
+        <v>0.03578421787551973</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>205</v>
+      </c>
+      <c r="J5" t="n">
+        <v>485</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2769389551.286188</v>
+        <v>2800855844.320965</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1192468169062706</v>
+        <v>0.09681642368732829</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05072724640515572</v>
+        <v>0.0410662634418924</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2823262375.202121</v>
+        <v>2238462614.100902</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09263720505567734</v>
+        <v>0.0913655180899865</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03935376118534328</v>
+        <v>0.0335508448291536</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3209692055.65541</v>
+        <v>3559986134.600431</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1512925587853885</v>
+        <v>0.1736193184154386</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02187561971945179</v>
+        <v>0.0286739527470669</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>485</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1695450887.254282</v>
+        <v>2217224641.216674</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1615366837283086</v>
+        <v>0.1953632524290025</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0299528795880357</v>
+        <v>0.03475983477744924</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5408623271.72853</v>
+        <v>4302502927.028964</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1389893604665318</v>
+        <v>0.1492900793620721</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03650035856619604</v>
+        <v>0.04336497348542308</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>368</v>
+      </c>
+      <c r="J10" t="n">
+        <v>484</v>
+      </c>
+      <c r="K10" t="n">
+        <v>26.51167968087134</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3927799102.125195</v>
+        <v>3435024681.579588</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1728409896743889</v>
+        <v>0.1701273816739005</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04442476013541782</v>
+        <v>0.0318822561511799</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>203</v>
+      </c>
+      <c r="J11" t="n">
+        <v>485</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2353518494.107973</v>
+        <v>2178122282.467886</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1202854350063945</v>
+        <v>0.1330210112373048</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05273495044375211</v>
+        <v>0.05188775121383973</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +888,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5303756892.983</v>
+        <v>5189622745.439889</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08065095091311604</v>
+        <v>0.08155128914824186</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03032279324409716</v>
+        <v>0.02235163734751008</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>251</v>
+      </c>
+      <c r="J13" t="n">
+        <v>484</v>
+      </c>
+      <c r="K13" t="n">
+        <v>29.63854790242195</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2709337836.894312</v>
+        <v>3321631666.845891</v>
       </c>
       <c r="F14" t="n">
-        <v>0.162444550270095</v>
+        <v>0.1389076151713197</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03836969549292684</v>
+        <v>0.03305881258143224</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>112</v>
+      </c>
+      <c r="J14" t="n">
+        <v>483</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1334203955.548412</v>
+        <v>1562072043.096996</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0807761882235136</v>
+        <v>0.0702196235400898</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03406876616343632</v>
+        <v>0.03329365495050952</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2627570515.350143</v>
+        <v>2806525069.579926</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08442539972030164</v>
+        <v>0.1063677396279699</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0317084095851838</v>
+        <v>0.04649613444138045</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1030,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4077575821.574904</v>
+        <v>3285070666.871964</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1061386451563332</v>
+        <v>0.1661585630923582</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04640733132937903</v>
+        <v>0.0331653877955129</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>237</v>
+      </c>
+      <c r="J17" t="n">
+        <v>483</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2536285233.917333</v>
+        <v>2892312537.491679</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1683751321809906</v>
+        <v>0.1284969086882978</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02235818970131582</v>
+        <v>0.03397726610189424</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>130</v>
+      </c>
+      <c r="J18" t="n">
+        <v>480</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1137904433.079529</v>
+        <v>1239070427.909602</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1807030986910616</v>
+        <v>0.1235216001081442</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0260085112569865</v>
+        <v>0.01741425445240894</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1135,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2400156415.905721</v>
+        <v>1812272792.169332</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1130208150327504</v>
+        <v>0.1169123638121721</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02215751737476248</v>
+        <v>0.02217459705036463</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1170,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2518074962.964051</v>
+        <v>2631247825.58444</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0885251484639541</v>
+        <v>0.08933835454458121</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03721868196168329</v>
+        <v>0.03494375015463919</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2820279394.240394</v>
+        <v>3174586338.993753</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1318622402784566</v>
+        <v>0.1206224214801098</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03861727233448542</v>
+        <v>0.05640431965952442</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>142</v>
+      </c>
+      <c r="J22" t="n">
+        <v>482</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1240,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1537903421.897337</v>
+        <v>1269238602.729305</v>
       </c>
       <c r="F23" t="n">
-        <v>0.170469476822444</v>
+        <v>0.1149310625194298</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0445412408539815</v>
+        <v>0.04308038554472875</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1269,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3854622765.987377</v>
+        <v>2826635862.526714</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09292380175388915</v>
+        <v>0.1170371518063244</v>
       </c>
       <c r="G24" t="n">
-        <v>0.027348434976227</v>
+        <v>0.03364781649192594</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>154</v>
+      </c>
+      <c r="J24" t="n">
+        <v>484</v>
+      </c>
+      <c r="K24" t="n">
+        <v>17.89021314607072</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1011892696.205293</v>
+        <v>1120210324.002355</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07437064565196759</v>
+        <v>0.1209290377540874</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0301028123831774</v>
+        <v>0.01883421929385243</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>982546358.2704546</v>
+        <v>1374283452.663406</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1067686556130276</v>
+        <v>0.1110694825574703</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02689015998809395</v>
+        <v>0.03537586824982126</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1382,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3813213697.680133</v>
+        <v>4686588617.251164</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09932691550036285</v>
+        <v>0.136230992010621</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01889908616708638</v>
+        <v>0.01825454758089463</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>216</v>
+      </c>
+      <c r="J27" t="n">
+        <v>485</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2678395989.95788</v>
+        <v>2774054568.56532</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1300687015211372</v>
+        <v>0.1241066937203275</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04937533443498181</v>
+        <v>0.03449766947170128</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>119</v>
+      </c>
+      <c r="J28" t="n">
+        <v>480</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1452,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3775865652.656912</v>
+        <v>5356381592.046578</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1343784295429951</v>
+        <v>0.1005207213821636</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02914754287618126</v>
+        <v>0.04522974158407831</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>383</v>
+      </c>
+      <c r="J29" t="n">
+        <v>485</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1481,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1736509121.793837</v>
+        <v>2254120457.184904</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1223379742621135</v>
+        <v>0.1001530495120038</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03849296142010149</v>
+        <v>0.02960207928045532</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1180370719.544297</v>
+        <v>1071511901.17771</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07331394472897475</v>
+        <v>0.1056779818943193</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04451563967179901</v>
+        <v>0.04288281568723358</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1557,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1640184151.424022</v>
+        <v>1826999280.817073</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09901126840269135</v>
+        <v>0.1070678163250084</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02880408765518876</v>
+        <v>0.0339933478267676</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1586,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2776350626.459415</v>
+        <v>3102287596.612572</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2052380748816239</v>
+        <v>0.1449381783311841</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04566353150356951</v>
+        <v>0.04592551594618208</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1621,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1421637807.424456</v>
+        <v>1287962384.51999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1194549022112151</v>
+        <v>0.08303329634791298</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01953638199629613</v>
+        <v>0.02622169851372667</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1662,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1351077830.718217</v>
+        <v>925666140.6721729</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08274480131998857</v>
+        <v>0.09214688645903303</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02876738922697819</v>
+        <v>0.04439555873923161</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1697,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3159886519.880862</v>
+        <v>1976789334.672306</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1240776748229284</v>
+        <v>0.1108564010897665</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02179136838429663</v>
+        <v>0.0251414372873776</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1732,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2268244487.07179</v>
+        <v>2219446742.658708</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08365950278185724</v>
+        <v>0.08763286475563943</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02669682084400804</v>
+        <v>0.0371596021233019</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1419918163.937247</v>
+        <v>1891115886.816375</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1019987107476611</v>
+        <v>0.07954780894146118</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03789073994217981</v>
+        <v>0.02658758037744936</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1434030194.238117</v>
+        <v>1433206789.909831</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1540059853168386</v>
+        <v>0.1203524937581568</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02534963922228466</v>
+        <v>0.02397792641101128</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1837,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1426571500.502533</v>
+        <v>1575452563.47162</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1523611732578078</v>
+        <v>0.09906919237588128</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05705180189337119</v>
+        <v>0.05635293058235865</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1866,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2412142115.070587</v>
+        <v>2525047703.928715</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1058074267834453</v>
+        <v>0.1186159741731104</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03007762657072818</v>
+        <v>0.04044483216151581</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1907,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3212123088.629709</v>
+        <v>3182328022.596407</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08335589131800478</v>
+        <v>0.1228969571085751</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04031478331925023</v>
+        <v>0.03200169680369194</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>209</v>
+      </c>
+      <c r="J42" t="n">
+        <v>483</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1936,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2670068358.764932</v>
+        <v>1965374681.330484</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1424384419719825</v>
+        <v>0.1728589179960828</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02436893431646074</v>
+        <v>0.02253632209813763</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1977,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2291049626.239363</v>
+        <v>1739867324.14627</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0908055600441882</v>
+        <v>0.06620244955044388</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03085946754268746</v>
+        <v>0.03454499458083712</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2006,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2199971899.980851</v>
+        <v>2507617051.103591</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1898320129121869</v>
+        <v>0.178948830536205</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05488574866388954</v>
+        <v>0.05460213897851291</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2041,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3852406297.695387</v>
+        <v>4982711925.527043</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1293521827816891</v>
+        <v>0.172113969708909</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0577729765665849</v>
+        <v>0.04115241759544205</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>285</v>
+      </c>
+      <c r="J46" t="n">
+        <v>485</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2076,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3367420129.279828</v>
+        <v>4285175432.641109</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1777265436145249</v>
+        <v>0.2024494537895542</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05917075109231566</v>
+        <v>0.04731291690746057</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>219</v>
+      </c>
+      <c r="J47" t="n">
+        <v>485</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2111,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2843888690.08626</v>
+        <v>3570681416.071577</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07823100149995839</v>
+        <v>0.07943384427591584</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03467719084835058</v>
+        <v>0.02369616649262741</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>243</v>
+      </c>
+      <c r="J48" t="n">
+        <v>484</v>
+      </c>
+      <c r="K48" t="n">
+        <v>21.56202512220665</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2154,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1844593745.598998</v>
+        <v>1198792374.219391</v>
       </c>
       <c r="F49" t="n">
-        <v>0.160774750409076</v>
+        <v>0.1605134391206361</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03073248506023874</v>
+        <v>0.0400986814306416</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2183,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3393390383.792508</v>
+        <v>2579487742.19054</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1578631224508937</v>
+        <v>0.1208940520122299</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04647302706451821</v>
+        <v>0.03968319616474106</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>174</v>
+      </c>
+      <c r="J50" t="n">
+        <v>483</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2218,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1020114523.291781</v>
+        <v>1223556083.385118</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1481716737010742</v>
+        <v>0.1267359868790535</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03360790479526117</v>
+        <v>0.04176398111643636</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2259,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3737558936.183124</v>
+        <v>4671837858.053695</v>
       </c>
       <c r="F52" t="n">
-        <v>0.131020928647878</v>
+        <v>0.1142502700691349</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03897401782713866</v>
+        <v>0.05341700982522438</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>271</v>
+      </c>
+      <c r="J52" t="n">
+        <v>485</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2288,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2703067631.263589</v>
+        <v>3250274468.03867</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1330049653888704</v>
+        <v>0.1805250870822597</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03336447878545384</v>
+        <v>0.03414424776245588</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>471</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2323,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3333334687.613904</v>
+        <v>4762383102.174274</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1605072707263283</v>
+        <v>0.1494642770084391</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04216989293410341</v>
+        <v>0.03561473074550345</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>256</v>
+      </c>
+      <c r="J54" t="n">
+        <v>485</v>
+      </c>
+      <c r="K54" t="n">
+        <v>31.53685545970709</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2360,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3763011964.208262</v>
+        <v>3350557446.435565</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2193881689092808</v>
+        <v>0.2214177132155954</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02889673800558576</v>
+        <v>0.02641124046822953</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>239</v>
+      </c>
+      <c r="J55" t="n">
+        <v>484</v>
+      </c>
+      <c r="K55" t="n">
+        <v>21.46739780394298</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2397,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1672283148.209862</v>
+        <v>1429549711.62027</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1577422667797561</v>
+        <v>0.114903827557334</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05500123174236116</v>
+        <v>0.03946263873074049</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2432,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3481145165.037042</v>
+        <v>4291105477.836051</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1251463520844928</v>
+        <v>0.1836944600025838</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01837236464221245</v>
+        <v>0.02088875859974045</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>210</v>
+      </c>
+      <c r="J57" t="n">
+        <v>484</v>
+      </c>
+      <c r="K57" t="n">
+        <v>30.26945901013048</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2469,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1633407763.573501</v>
+        <v>1254472862.044506</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1511034038622129</v>
+        <v>0.1896897660701757</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03927355899355272</v>
+        <v>0.03049417435977314</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2504,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3975729309.727356</v>
+        <v>5414007765.384193</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0790640942295098</v>
+        <v>0.1234506897362506</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0441307045674948</v>
+        <v>0.04439312377698246</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>238</v>
+      </c>
+      <c r="J59" t="n">
+        <v>484</v>
+      </c>
+      <c r="K59" t="n">
+        <v>28.28279692696173</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2541,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3293506547.457142</v>
+        <v>2841886362.761046</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1443764140057501</v>
+        <v>0.1276491295033253</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03010958762326438</v>
+        <v>0.02222820507612027</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>98</v>
+      </c>
+      <c r="J60" t="n">
+        <v>483</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2576,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2358230695.94004</v>
+        <v>3205965729.458395</v>
       </c>
       <c r="F61" t="n">
-        <v>0.176813628107659</v>
+        <v>0.1427327900557245</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02304003666343807</v>
+        <v>0.0226021563780844</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2611,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2044791081.317448</v>
+        <v>2029263464.942214</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1827275287522346</v>
+        <v>0.1611132529513471</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03444014615896324</v>
+        <v>0.03703896823271759</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2646,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3450467435.987467</v>
+        <v>3462447650.721513</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07089217159129689</v>
+        <v>0.07078829661275296</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03906486974270554</v>
+        <v>0.03474539889100617</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>242</v>
+      </c>
+      <c r="J63" t="n">
+        <v>484</v>
+      </c>
+      <c r="K63" t="n">
+        <v>19.12368647377679</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2683,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3986405312.38794</v>
+        <v>4150169363.428112</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1210882207642714</v>
+        <v>0.1573803795213118</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0261675803929125</v>
+        <v>0.02732826878387628</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>241</v>
+      </c>
+      <c r="J64" t="n">
+        <v>485</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2718,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4949347455.630716</v>
+        <v>5510156626.984534</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1724343710066618</v>
+        <v>0.1491795297833069</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02693000665405883</v>
+        <v>0.02259071063859197</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>340</v>
+      </c>
+      <c r="J65" t="n">
+        <v>484</v>
+      </c>
+      <c r="K65" t="n">
+        <v>25.46135174226643</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2755,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4587867128.629341</v>
+        <v>5227684849.810122</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1532097917163776</v>
+        <v>0.1380051883594821</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04856980428391548</v>
+        <v>0.0313927281927071</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>240</v>
+      </c>
+      <c r="J66" t="n">
+        <v>484</v>
+      </c>
+      <c r="K66" t="n">
+        <v>29.28696207584142</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2798,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3306645583.920395</v>
+        <v>3152472623.548037</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09354644445252108</v>
+        <v>0.06214167520347472</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05094863374069109</v>
+        <v>0.03991293595973613</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2827,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4051113003.702355</v>
+        <v>4325227346.431766</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1270723904885031</v>
+        <v>0.1397792210091066</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03444816744897337</v>
+        <v>0.03502854775170541</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>263</v>
+      </c>
+      <c r="J68" t="n">
+        <v>485</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2868,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1961511470.92144</v>
+        <v>2031647965.42781</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1481569729017359</v>
+        <v>0.1271382960689637</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04340234112607099</v>
+        <v>0.05190845836347975</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2897,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3065154685.088318</v>
+        <v>3250988467.062528</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06427959044577784</v>
+        <v>0.08835990115757487</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03304610651959442</v>
+        <v>0.03029020397560096</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>72</v>
+      </c>
+      <c r="J70" t="n">
+        <v>481</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2938,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4594701504.250018</v>
+        <v>4163976149.536817</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1714134005711118</v>
+        <v>0.1351851990856161</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03058010585133366</v>
+        <v>0.02729515246292231</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>327</v>
+      </c>
+      <c r="J71" t="n">
+        <v>484</v>
+      </c>
+      <c r="K71" t="n">
+        <v>27.11858992190657</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2042484016.49665</v>
+        <v>1882688481.014664</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09265160334093851</v>
+        <v>0.1086592094281803</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04085399047044727</v>
+        <v>0.04386340046084812</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3004,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3191014505.663162</v>
+        <v>2469393860.830148</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1058061958276018</v>
+        <v>0.09573561224845692</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03275232955456632</v>
+        <v>0.04028637776736519</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>46</v>
+      </c>
+      <c r="J73" t="n">
+        <v>481</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3039,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3261641622.268835</v>
+        <v>3411259174.918017</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1157865350139919</v>
+        <v>0.1471230975558929</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0316947904029852</v>
+        <v>0.02167243667041976</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>143</v>
+      </c>
+      <c r="J74" t="n">
+        <v>485</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3074,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2189544355.564365</v>
+        <v>2401887684.606427</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1257762056302915</v>
+        <v>0.1181415234603129</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0265365601947632</v>
+        <v>0.02366985684222914</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3115,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4987904322.360794</v>
+        <v>5253706540.084078</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1148235815535309</v>
+        <v>0.07920065428876497</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03151632911540005</v>
+        <v>0.0252765888918135</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>232</v>
+      </c>
+      <c r="J76" t="n">
+        <v>485</v>
+      </c>
+      <c r="K76" t="n">
+        <v>30.31242330046293</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1889066794.782774</v>
+        <v>1652991295.876935</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1644316484148201</v>
+        <v>0.1795685379119153</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02720897962510286</v>
+        <v>0.02161694300810946</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3181,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3244020196.117688</v>
+        <v>4305983216.034644</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1041336632257271</v>
+        <v>0.0933203146189025</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05724953790790337</v>
+        <v>0.04880112282700598</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>240</v>
+      </c>
+      <c r="J78" t="n">
+        <v>485</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3216,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1775440123.704002</v>
+        <v>1865821019.651625</v>
       </c>
       <c r="F79" t="n">
-        <v>0.15123442173731</v>
+        <v>0.1205930375781397</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03482509637867243</v>
+        <v>0.0258087605335277</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3251,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4830057424.446065</v>
+        <v>4194448243.726095</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1092940712556764</v>
+        <v>0.07194600210548695</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02703897832576351</v>
+        <v>0.0324010381675948</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>237</v>
+      </c>
+      <c r="J80" t="n">
+        <v>484</v>
+      </c>
+      <c r="K80" t="n">
+        <v>25.81483704283717</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4046910564.216852</v>
+        <v>3465347943.939679</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1247137105920468</v>
+        <v>0.1206967910778063</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02761594246074084</v>
+        <v>0.03012220186406142</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>227</v>
+      </c>
+      <c r="J81" t="n">
+        <v>484</v>
+      </c>
+      <c r="K81" t="n">
+        <v>19.7070001354526</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3325,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3423561075.349969</v>
+        <v>5159681139.311176</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1505088930165295</v>
+        <v>0.2124964081223733</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02911440476592811</v>
+        <v>0.02584834452967068</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>318</v>
+      </c>
+      <c r="J82" t="n">
+        <v>485</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3360,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1999361333.741624</v>
+        <v>1802498134.064449</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1472600135821243</v>
+        <v>0.1274333633131117</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04404572533431219</v>
+        <v>0.03597121339439317</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3395,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2545575110.711317</v>
+        <v>2590263790.738209</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07629513137440437</v>
+        <v>0.08575032620199531</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05033474316727875</v>
+        <v>0.04630062505688009</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3436,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3531726030.233824</v>
+        <v>3094144297.786244</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1113480148160774</v>
+        <v>0.1461964417880771</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04255853196635119</v>
+        <v>0.03628028985418924</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>73</v>
+      </c>
+      <c r="J85" t="n">
+        <v>485</v>
+      </c>
+      <c r="K85" t="n">
+        <v>32.22302041476255</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1725168507.755165</v>
+        <v>2544501127.334744</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1470884367505872</v>
+        <v>0.1232412934122324</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02650452869909124</v>
+        <v>0.01898997101460553</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1363997377.277845</v>
+        <v>1380926776.800586</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1796702246439663</v>
+        <v>0.1674874948957111</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03743860540631866</v>
+        <v>0.036144530265219</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2873425745.700254</v>
+        <v>3342500060.945206</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1474286770456087</v>
+        <v>0.1210973738276931</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03914110434628794</v>
+        <v>0.02776625426827146</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>70</v>
+      </c>
+      <c r="J88" t="n">
+        <v>485</v>
+      </c>
+      <c r="K88" t="n">
+        <v>34.14982295690801</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2672459851.006665</v>
+        <v>3364460768.325493</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1196669180676646</v>
+        <v>0.122482893683601</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02622529993865693</v>
+        <v>0.04095945249941159</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>485</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1514759492.600963</v>
+        <v>1696924136.584984</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09134959025621806</v>
+        <v>0.1271205318163714</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03796170846534353</v>
+        <v>0.04412561083293574</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1896066863.962479</v>
+        <v>1297809891.510229</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1735019657124023</v>
+        <v>0.143364177140571</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05578873583597082</v>
+        <v>0.04964493819741621</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2976583414.014826</v>
+        <v>2736528180.651878</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08637648549772957</v>
+        <v>0.1089423890389986</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0454658681465062</v>
+        <v>0.04485494757491119</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3750532274.546988</v>
+        <v>3120365331.549107</v>
       </c>
       <c r="F93" t="n">
-        <v>0.121496972404422</v>
+        <v>0.1066621855566095</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03939202499607333</v>
+        <v>0.03702230835907316</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>233</v>
+      </c>
+      <c r="J93" t="n">
+        <v>484</v>
+      </c>
+      <c r="K93" t="n">
+        <v>16.03762028689074</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2414643081.565245</v>
+        <v>2513342298.302548</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1189174800718181</v>
+        <v>0.1423843069044297</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03097351307730151</v>
+        <v>0.03045995035183859</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2339298290.443517</v>
+        <v>2355579196.564713</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09503112875037434</v>
+        <v>0.1153499934690281</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05167797951094157</v>
+        <v>0.05152885155095317</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1793035375.245408</v>
+        <v>1468033023.515005</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1275834568946656</v>
+        <v>0.08545805914880283</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04196625566583879</v>
+        <v>0.04546640862414894</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4453967856.367085</v>
+        <v>3378206354.252048</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1285533745607048</v>
+        <v>0.1721526484015998</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02361732552551787</v>
+        <v>0.02320758434842975</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>253</v>
+      </c>
+      <c r="J97" t="n">
+        <v>484</v>
+      </c>
+      <c r="K97" t="n">
+        <v>17.96844387641099</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2470765217.727141</v>
+        <v>3340063354.240604</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07948664446925797</v>
+        <v>0.09324606879877247</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02803112457700195</v>
+        <v>0.02669026487833563</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>124</v>
+      </c>
+      <c r="J98" t="n">
+        <v>480</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2886844202.188557</v>
+        <v>3030214263.39058</v>
       </c>
       <c r="F99" t="n">
-        <v>0.121163290834609</v>
+        <v>0.1081977964491164</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02895007326972378</v>
+        <v>0.0227096211050928</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3651807915.935695</v>
+        <v>4367173104.209681</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1757201066951164</v>
+        <v>0.14966542477973</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02188685696698174</v>
+        <v>0.01943923996856991</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>226</v>
+      </c>
+      <c r="J100" t="n">
+        <v>485</v>
+      </c>
+      <c r="K100" t="n">
+        <v>32.11675790799999</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2765866339.549018</v>
+        <v>3006131376.700249</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1919312490924547</v>
+        <v>0.1531073577988427</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0527574803152168</v>
+        <v>0.03870218098877268</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
